--- a/public/import/format import box.xlsx
+++ b/public/import/format import box.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projek Arsip MDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taufik/Documents/part time artha/Project arsip MDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9F818F-1AAE-4945-91B5-C7AE7161943A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E58EB5-4775-4A46-BAC8-F86BCC517421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B8818C92-45DD-4E2C-AFB3-7BDFEFF4E4B6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{B8818C92-45DD-4E2C-AFB3-7BDFEFF4E4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>CLIENT</t>
   </si>
@@ -67,106 +66,37 @@
     <t>JENIS DOKUMEN ATAU NAMA DEBITUR</t>
   </si>
   <si>
-    <t>DIAN</t>
-  </si>
-  <si>
-    <t>PUTRA</t>
-  </si>
-  <si>
-    <t>DANNY</t>
-  </si>
-  <si>
     <t xml:space="preserve">Laporan Keuangan dalam Bentuk Koran 2005, 2006, 2007 </t>
   </si>
   <si>
     <t xml:space="preserve">Laporan Keuangan dari Bank - Bank </t>
   </si>
   <si>
-    <t xml:space="preserve">Iklan Bukopin dalam Bentuk Koran </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laporan Keuangan Bukopin di media dalam bentuk Koran </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laporan Keuangan Konsolidasi &amp; Media </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Global </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laporan Keuangan 2004-2009 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laporan Keuangan &amp; Iklan Koran 2007 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laporan Keuangan 2008 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pengumuman Bukopin 2007 </t>
-  </si>
-  <si>
-    <t>Pengumuman Bukopin 2005</t>
-  </si>
-  <si>
-    <t>Pengumuman Bukopin 2006</t>
-  </si>
-  <si>
-    <t>Pengumuman Bukopin 2007</t>
-  </si>
-  <si>
     <t>23 januari 2019</t>
   </si>
   <si>
-    <t>8 januari 2019</t>
-  </si>
-  <si>
-    <t>2 januari 2019</t>
-  </si>
-  <si>
-    <t>18 januari 2019</t>
-  </si>
-  <si>
     <t>SKPR</t>
   </si>
   <si>
-    <t>Jepara</t>
-  </si>
-  <si>
-    <t>JAJANG</t>
-  </si>
-  <si>
-    <t>INDRI</t>
-  </si>
-  <si>
     <t>bukopin</t>
   </si>
   <si>
     <t>KPO</t>
   </si>
   <si>
-    <t>AA-102</t>
-  </si>
-  <si>
-    <t>BB-103</t>
-  </si>
-  <si>
-    <t>CC-104</t>
-  </si>
-  <si>
-    <t>DD-105</t>
-  </si>
-  <si>
-    <t>EE-106</t>
-  </si>
-  <si>
-    <t>FF-107</t>
-  </si>
-  <si>
     <t>NOMOR BOX</t>
   </si>
   <si>
     <t>NOMOR BANTEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	XXV/I6</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -176,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,42 +250,14 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Calculation 2" xfId="11" xr:uid="{C9D03029-9030-4CC9-A705-55F80D4A62D9}"/>
@@ -685,80 +587,80 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
+    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -767,227 +669,84 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="31">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="31">
-      <c r="A5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="31">
-      <c r="A6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.5">
-      <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.5">
-      <c r="A8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="31">
-      <c r="A9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.5">
-      <c r="A10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.5">
-      <c r="A11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="I11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.5">
-      <c r="A12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.5">
-      <c r="A13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.5">
-      <c r="A14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" t="s">
-        <v>33</v>
-      </c>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
